--- a/output/fit_clients/fit_round_364.xlsx
+++ b/output/fit_clients/fit_round_364.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2052421877.190747</v>
+        <v>2061592476.283627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06921307272261285</v>
+        <v>0.07257714555244607</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02770996439074349</v>
+        <v>0.04330742798240021</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1026210941.267914</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1725961517.162248</v>
+        <v>2584914849.385757</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1201056094186867</v>
+        <v>0.1639140246446971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03447466587966198</v>
+        <v>0.04065330613412047</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>862980756.2065384</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4845878891.291368</v>
+        <v>3816819934.010197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152568962123877</v>
+        <v>0.1200481238729918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02430611597784442</v>
+        <v>0.02653576465591203</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2422939519.751047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2941286834.042585</v>
+        <v>3915754249.127912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.099961699763697</v>
+        <v>0.07854373108933835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04254594685726934</v>
+        <v>0.05043845549295908</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1470643490.741139</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1873876358.202576</v>
+        <v>2293019872.493642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1001796124307002</v>
+        <v>0.1037928233876777</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04862526531658358</v>
+        <v>0.04703440946105505</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>936938222.3551568</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2132275269.580951</v>
+        <v>1962266419.818274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06733191494220502</v>
+        <v>0.08609938960085273</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0439624880015067</v>
+        <v>0.04515298177795726</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1066137683.230625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3817318605.811779</v>
+        <v>2511048147.139804</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362177018898133</v>
+        <v>0.1674925153174931</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03312619938727767</v>
+        <v>0.02943269767109469</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>116</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1908659443.982206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1880433495.530488</v>
+        <v>1926262806.197752</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1350955375591618</v>
+        <v>0.1569129253438379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02900858591710363</v>
+        <v>0.03493457436301035</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>940216790.976477</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5708948716.285156</v>
+        <v>5214442276.538812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1498138377280226</v>
+        <v>0.1575840423578498</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03465999993345784</v>
+        <v>0.0502785010872921</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>153</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2854474512.359482</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3128940001.746528</v>
+        <v>2958944262.308899</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1172448278180217</v>
+        <v>0.1581752322486199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03445574900008767</v>
+        <v>0.03823510417956136</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>150</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1564469952.823264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2749839162.228734</v>
+        <v>2943495954.568769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1992928586364335</v>
+        <v>0.1231160597426598</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03918488189817481</v>
+        <v>0.04201799379018775</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>125</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1374919576.2387</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4420648388.006158</v>
+        <v>5193133059.426991</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07137686405092537</v>
+        <v>0.09786393936058249</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02997396764679987</v>
+        <v>0.0308401614273438</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>122</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2210324227.577471</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2662001048.965352</v>
+        <v>3437894189.066086</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1351367009295033</v>
+        <v>0.1666540198931401</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03542290587454738</v>
+        <v>0.03619236884085834</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1331000583.410344</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1269289783.18097</v>
+        <v>1159874224.964966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08506767746935717</v>
+        <v>0.09960361336901226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03261806956618758</v>
+        <v>0.04069993219978808</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>634644924.8017516</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1763765810.311365</v>
+        <v>1976706468.943661</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1102830753406655</v>
+        <v>0.108879040043946</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03878922480020995</v>
+        <v>0.03435359201230173</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>881883001.7524337</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4012205254.802218</v>
+        <v>3877755215.113553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1641763917193133</v>
+        <v>0.1255272962496577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04411571849249587</v>
+        <v>0.03427778399971351</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2006102661.416851</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2517771447.665516</v>
+        <v>3649591872.515331</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1665132728614766</v>
+        <v>0.1240496528116452</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02773218645476032</v>
+        <v>0.03450353221545233</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>119</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1258885789.021073</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1058453989.163427</v>
+        <v>966463556.6644348</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1858308768373246</v>
+        <v>0.135672937936111</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01653220910961151</v>
+        <v>0.02193381216628588</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>529227038.0408011</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1730952953.685213</v>
+        <v>2188002961.318644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1295542039445957</v>
+        <v>0.1471480446888372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02328243309411691</v>
+        <v>0.03165190241419225</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>865476531.8578831</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2042318094.296496</v>
+        <v>2186060354.130186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06794583308711391</v>
+        <v>0.07604633330659995</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03496202109199802</v>
+        <v>0.03717434278134128</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1021159079.061596</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3957626278.509825</v>
+        <v>3342394181.756265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08799038992080098</v>
+        <v>0.1338715478602809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04381886533091056</v>
+        <v>0.04507479498424426</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1978813143.454303</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1541319300.048594</v>
+        <v>1113653876.554276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1551501579636876</v>
+        <v>0.1157615812267729</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04351052622730675</v>
+        <v>0.0536694272278918</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>770659629.0159973</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3807237628.103199</v>
+        <v>3377590543.373724</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09704050834319453</v>
+        <v>0.1191714570459292</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03531303707602198</v>
+        <v>0.02476597109958734</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1903618795.003759</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1027771705.042644</v>
+        <v>1176768560.918711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09772175202848915</v>
+        <v>0.100483904384963</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02134437141548139</v>
+        <v>0.02885432480388963</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>513885910.1165929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1441548264.161885</v>
+        <v>1222709570.305191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1057161570531156</v>
+        <v>0.08377354939212403</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02858610995215658</v>
+        <v>0.03702182993844649</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>720774212.2147467</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3396375450.823517</v>
+        <v>3253736458.803173</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1045405968996643</v>
+        <v>0.1108601372539178</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02663531132702814</v>
+        <v>0.02175819147892229</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1698187765.543744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3507771145.445102</v>
+        <v>2846669668.557837</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1276820460021616</v>
+        <v>0.09401090018119422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04534700585411428</v>
+        <v>0.04452291840844357</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1753885628.060032</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5323772945.301917</v>
+        <v>5849403678.926795</v>
       </c>
       <c r="F29" t="n">
-        <v>0.101078109081264</v>
+        <v>0.133384277679035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03762031585281603</v>
+        <v>0.03427236134116123</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>161</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2661886397.76945</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1906489584.363181</v>
+        <v>2154135348.047276</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278666400134477</v>
+        <v>0.09121372406035695</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03356719646032276</v>
+        <v>0.02520481870231516</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>953244819.0340972</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1116595584.240599</v>
+        <v>1224868652.5244</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07782496693961603</v>
+        <v>0.0709537792405372</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04178948137301049</v>
+        <v>0.0382534214015481</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>558297763.2250024</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1502397371.589302</v>
+        <v>1514780649.624202</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145369905966179</v>
+        <v>0.1204607352870553</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02787132102920248</v>
+        <v>0.02733027605944155</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>751198754.6498438</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2040758351.1051</v>
+        <v>2740966698.521461</v>
       </c>
       <c r="F33" t="n">
-        <v>0.205084733527005</v>
+        <v>0.1657380502199045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04526201538990427</v>
+        <v>0.04892671773649279</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>109</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1020379252.86752</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1356785666.303711</v>
+        <v>1471632162.30113</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1174669620202972</v>
+        <v>0.087946190213274</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02372123722995188</v>
+        <v>0.02447416924964142</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>678392812.5078522</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268393473.315994</v>
+        <v>1233956708.734663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09233439555654303</v>
+        <v>0.09892998583043769</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0284985910303607</v>
+        <v>0.03079709723215239</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>634196696.3982645</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2044221503.216985</v>
+        <v>2542449840.522753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1435745253903116</v>
+        <v>0.1705326384140599</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02599162422404312</v>
+        <v>0.02608029584274393</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1022110810.125325</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2230865873.351844</v>
+        <v>1964540439.241614</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07204581923141411</v>
+        <v>0.08055589964880058</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02910835948435433</v>
+        <v>0.03765027184309223</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1115432995.718069</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1756233837.619481</v>
+        <v>1906155201.5897</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09528463897233008</v>
+        <v>0.1023319001313103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03221002457329158</v>
+        <v>0.03456322362857536</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>878116931.8813765</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1933095684.765345</v>
+        <v>1868084711.637494</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1614295618403503</v>
+        <v>0.165578668238267</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03261236269392088</v>
+        <v>0.02479712028575181</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>966547847.1154895</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1147417172.195957</v>
+        <v>1691658662.768552</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1407712529537289</v>
+        <v>0.1348248178659734</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05018235733849</v>
+        <v>0.04800722124218904</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>573708640.5674828</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2281247423.076175</v>
+        <v>2513834911.406624</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302024044139021</v>
+        <v>0.1665243785449066</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03544448795635936</v>
+        <v>0.03169833475809175</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1140623758.220372</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3712929929.214072</v>
+        <v>3998709297.784637</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0906915308827914</v>
+        <v>0.1079204036945467</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04300647021059895</v>
+        <v>0.03962433625908953</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>121</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1856464974.123094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2879433244.379418</v>
+        <v>2641139083.804139</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1428750293086865</v>
+        <v>0.142640200264171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01638390087612941</v>
+        <v>0.02358314437036384</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>128</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1439716632.691658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1480045951.035622</v>
+        <v>1727759777.37047</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09865494334669558</v>
+        <v>0.09463511818171082</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02619641285399698</v>
+        <v>0.03694505493205555</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>740022978.1189537</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2434573724.833676</v>
+        <v>2189595012.180451</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1685150754336175</v>
+        <v>0.1237346507547655</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03887605086586192</v>
+        <v>0.05232229827323882</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1217286897.079811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5536875270.013894</v>
+        <v>4846401065.148088</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1323802609785048</v>
+        <v>0.135987984657665</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04565216253646936</v>
+        <v>0.05996470527377399</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>129</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2768437692.552698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3596000659.673154</v>
+        <v>5119380011.667691</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1812531798315155</v>
+        <v>0.1921737739406612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04120465610301321</v>
+        <v>0.05970097579556425</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1798000306.130773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2881050707.620812</v>
+        <v>3595228926.180655</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07763441497067093</v>
+        <v>0.07812864105326295</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03137231704551673</v>
+        <v>0.0325687241471808</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1440525453.226169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1403470486.207065</v>
+        <v>1381398460.94877</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1860855969054351</v>
+        <v>0.1294221108772626</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03315859246016219</v>
+        <v>0.03435516490596971</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>701735290.1480796</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3641648991.32727</v>
+        <v>3383965131.460019</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1687656620623521</v>
+        <v>0.1378650433363389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04764217521047106</v>
+        <v>0.04919726081114729</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>124</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1820824509.848212</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1349182905.331641</v>
+        <v>1416689713.893413</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1607482223935724</v>
+        <v>0.1354212021456286</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03816298924617395</v>
+        <v>0.04108490152506431</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>674591480.0540159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4154609622.496967</v>
+        <v>4813113671.376063</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067082648083406</v>
+        <v>0.09611784324068486</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04815778208641382</v>
+        <v>0.04589079518489574</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>150</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2077304858.638646</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3782748470.311596</v>
+        <v>2473368215.641863</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1915439743115522</v>
+        <v>0.1556579435848288</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02417809167972256</v>
+        <v>0.02317637895658229</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1891374213.574773</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3800125433.603795</v>
+        <v>3869508663.690672</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1379634113371064</v>
+        <v>0.1106093341352338</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0447880628998304</v>
+        <v>0.05175761558565637</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1900062765.187334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4270025543.382895</v>
+        <v>3535644447.123105</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2026653390723983</v>
+        <v>0.1576478874844572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02177370449169055</v>
+        <v>0.02576506645445797</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>98</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2135012758.551736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1581575271.502978</v>
+        <v>1649348815.345538</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1120680016749295</v>
+        <v>0.1177833041973179</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04429335440864693</v>
+        <v>0.05581051398333782</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>790787665.9296046</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4386319938.436427</v>
+        <v>4575498765.524622</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1117093192289324</v>
+        <v>0.1388134122266336</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02369058276555566</v>
+        <v>0.02182108333717544</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>115</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2193160090.033009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1367961270.500953</v>
+        <v>1867484313.856744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1903055250477091</v>
+        <v>0.1416847954315709</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0249085723217411</v>
+        <v>0.03857741870492824</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>683980678.438219</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5352796148.975345</v>
+        <v>4308816726.38199</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09791168502823017</v>
+        <v>0.0902170620678413</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0435678826910222</v>
+        <v>0.03249612106073237</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2676397985.176443</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2472899046.872312</v>
+        <v>3273834390.367037</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264845100726665</v>
+        <v>0.1738056905353695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03341631111688053</v>
+        <v>0.02183854934513952</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>113</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1236449538.509696</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2943963195.968383</v>
+        <v>2970192431.53534</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1477885818109921</v>
+        <v>0.1802859252617669</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02064456119219678</v>
+        <v>0.02105897646693563</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>126</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1471981583.739927</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1866244774.108716</v>
+        <v>1915442088.252654</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1607685727786232</v>
+        <v>0.1356056460698329</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03695676077015779</v>
+        <v>0.04074431140571162</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>933122425.0878979</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4966228795.54487</v>
+        <v>4745058636.405452</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031228773307937</v>
+        <v>0.06769358835498987</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0443070278805494</v>
+        <v>0.04349924780495035</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2483114417.079782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4416117752.388953</v>
+        <v>4023552492.930269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1342842210567725</v>
+        <v>0.1392136061731626</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02495444145069624</v>
+        <v>0.0253990327867024</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>113</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2208058941.335873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4613605962.358513</v>
+        <v>5013441488.566602</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1294121047335021</v>
+        <v>0.1365892801766683</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02918591103933721</v>
+        <v>0.02744052170719238</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>130</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2306802963.155913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5466721305.694248</v>
+        <v>4832266309.333411</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1552709735121444</v>
+        <v>0.1236509416573459</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03354169645779918</v>
+        <v>0.04518838884180371</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2733360705.058724</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2584075252.625806</v>
+        <v>2278057678.268802</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08167937873580504</v>
+        <v>0.09343203632453757</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03516915241170779</v>
+        <v>0.03701193054424521</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1292037679.805781</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4411859339.724739</v>
+        <v>4619654957.449824</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1106466309219425</v>
+        <v>0.1121535689304527</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03613783224335414</v>
+        <v>0.04770028849962542</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>118</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2205929690.631155</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2258702460.106415</v>
+        <v>2282414713.279982</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1338325523660413</v>
+        <v>0.1397502135135534</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05801075301804719</v>
+        <v>0.0541420491124701</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1129351268.455346</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2563591440.634431</v>
+        <v>3698369839.102485</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07724610677044273</v>
+        <v>0.08828014603202655</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03218920483594666</v>
+        <v>0.03587511698508297</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>104</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1281795668.875749</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5422697814.126372</v>
+        <v>3536314723.413023</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1194515978271094</v>
+        <v>0.1374433132902266</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0294978167796566</v>
+        <v>0.02319450853671826</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>132</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2711349044.333673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1581591119.813098</v>
+        <v>2016327084.774996</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09369607796360231</v>
+        <v>0.09535507920149926</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03542031438870336</v>
+        <v>0.04496639477033417</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>790795573.7389526</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2732326949.323636</v>
+        <v>3557812555.599754</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07667125432056636</v>
+        <v>0.1098953101027672</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03781769943059429</v>
+        <v>0.0331476960169693</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>138</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1366163495.164396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3851252326.343157</v>
+        <v>2937857284.851586</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1442413866002429</v>
+        <v>0.1582394767808035</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02300495969553607</v>
+        <v>0.03494511428852735</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>124</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1925626154.983181</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2378682922.578201</v>
+        <v>1975249266.678557</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1654378679698273</v>
+        <v>0.1304674214358331</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03760381761342275</v>
+        <v>0.03531011380328763</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1189341390.047531</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5365245652.154846</v>
+        <v>4539428796.343365</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1043283618734386</v>
+        <v>0.1022326589700653</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03031047172441724</v>
+        <v>0.03038523022381855</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2682622868.065371</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2194367947.879974</v>
+        <v>1640762565.703288</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1359612225696124</v>
+        <v>0.1605123532515852</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02516078918896185</v>
+        <v>0.02978447420291049</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1097184064.156551</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3287108657.406599</v>
+        <v>4050531417.634272</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08325969758958511</v>
+        <v>0.09890125490123761</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03856281255216743</v>
+        <v>0.05137659360232161</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>127</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1643554345.474774</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1923404733.156335</v>
+        <v>1721772042.184222</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1350546136659894</v>
+        <v>0.1205747485966682</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03542391652265378</v>
+        <v>0.03616944662940623</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>961702474.828158</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4183829518.735454</v>
+        <v>5542523236.934751</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1035783895846608</v>
+        <v>0.1099346766755691</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0370594613079074</v>
+        <v>0.03366601513653749</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2091914767.977835</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3945809652.578353</v>
+        <v>4533864162.230941</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1333282177928548</v>
+        <v>0.1223280114512445</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02452945570304809</v>
+        <v>0.02557120037438842</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>83</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1972904787.506186</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3588136798.494108</v>
+        <v>4015753975.612955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1352912838952221</v>
+        <v>0.1544119627186203</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02394707496327887</v>
+        <v>0.02058297199240761</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>127</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1794068461.97406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2112307437.799678</v>
+        <v>2209738078.872681</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1022011800268061</v>
+        <v>0.1346680621193326</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04210977493203454</v>
+        <v>0.03782179350452573</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1056153718.200784</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2594248187.245462</v>
+        <v>1975661227.838077</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1037271187009602</v>
+        <v>0.1122963150417342</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03573989547684811</v>
+        <v>0.04499809855753188</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1297124011.599146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3222911111.859793</v>
+        <v>2872584787.902778</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1199026237885125</v>
+        <v>0.12306353397147</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04858191895994114</v>
+        <v>0.03802897217501685</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>137</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1611455640.702891</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2606888766.569028</v>
+        <v>2173846085.632969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1261090562496757</v>
+        <v>0.1343968800465249</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02524661416353126</v>
+        <v>0.02225355685777018</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1303444495.312657</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1508262723.332752</v>
+        <v>1030757041.760514</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1883194182037468</v>
+        <v>0.118901650859458</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03506698762910087</v>
+        <v>0.03380078994621341</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>754131496.2689906</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2943078811.914984</v>
+        <v>3664749929.87616</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1336088720494728</v>
+        <v>0.161671952894122</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03690331886478199</v>
+        <v>0.02495342511504542</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>144</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1471539430.779712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2642948137.917229</v>
+        <v>3314643281.678568</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1088514890881755</v>
+        <v>0.1589909931026499</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02958861709125022</v>
+        <v>0.03278132260362776</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>122</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1321474133.240798</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1914463236.683234</v>
+        <v>1764667952.50201</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235589158117195</v>
+        <v>0.09942737802956185</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05117726030983226</v>
+        <v>0.03414510669081108</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>957231672.9136221</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1975267142.010468</v>
+        <v>1402977459.830409</v>
       </c>
       <c r="F91" t="n">
-        <v>0.168287018160351</v>
+        <v>0.1656950722550787</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0526982757849051</v>
+        <v>0.04845013010738452</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>987633546.5628657</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2820917265.304348</v>
+        <v>2807912338.221724</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08216041219530677</v>
+        <v>0.08823992972771801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04153097290903753</v>
+        <v>0.04755436161397723</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>101</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1410458640.848531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3519208890.285393</v>
+        <v>3268143395.069169</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09100998302055466</v>
+        <v>0.1169007893119328</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03795896814246016</v>
+        <v>0.04761233766867976</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1759604476.87353</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2130440942.171218</v>
+        <v>1703814493.765521</v>
       </c>
       <c r="F94" t="n">
-        <v>0.151668698958133</v>
+        <v>0.1409052953255744</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0377341039370729</v>
+        <v>0.02881940200634812</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1065220486.397713</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2500284732.270085</v>
+        <v>2805011000.278971</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1235731450187794</v>
+        <v>0.0955250733751327</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03536569082485788</v>
+        <v>0.04094067555647222</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1250142402.197893</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2213864273.224787</v>
+        <v>1702671980.240442</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09237591512468019</v>
+        <v>0.1391833686570498</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03330490660886901</v>
+        <v>0.0458406118867504</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1106932100.76895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4192490346.936179</v>
+        <v>3417676203.487909</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1675624235568011</v>
+        <v>0.112754544708621</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02268679217819485</v>
+        <v>0.0187454366560871</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2096245245.33827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3197833088.635303</v>
+        <v>2825278323.820877</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1245954619077525</v>
+        <v>0.09961609162215811</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03277403307798033</v>
+        <v>0.02096156796643179</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1598916542.469479</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2384019638.336852</v>
+        <v>2737683923.065242</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113268518976708</v>
+        <v>0.1217077397772113</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0259011211379405</v>
+        <v>0.02943679548465585</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1192009760.508104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3631269805.940717</v>
+        <v>3554586157.978044</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1485995339845438</v>
+        <v>0.1757410130601548</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02039931766414088</v>
+        <v>0.02279897253331313</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>111</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1815634944.217818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2764703936.481807</v>
+        <v>2652802712.371589</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2111744247452466</v>
+        <v>0.2039315581645325</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05144707736641383</v>
+        <v>0.04224503558429472</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>149</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1382352026.217662</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_364.xlsx
+++ b/output/fit_clients/fit_round_364.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2061592476.283627</v>
+        <v>1695201883.5964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07257714555244607</v>
+        <v>0.08251504036640507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04330742798240021</v>
+        <v>0.0372486011379956</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2584914849.385757</v>
+        <v>2602265185.214596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1639140246446971</v>
+        <v>0.1677916370175108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04065330613412047</v>
+        <v>0.04004139836214866</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3816819934.010197</v>
+        <v>4312333024.978049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1200481238729918</v>
+        <v>0.1100128004138741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02653576465591203</v>
+        <v>0.0336931769253002</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3915754249.127912</v>
+        <v>4096140956.726587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07854373108933835</v>
+        <v>0.0798652899749058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05043845549295908</v>
+        <v>0.03798223304552732</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2293019872.493642</v>
+        <v>1907237589.160249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1037928233876777</v>
+        <v>0.1146665698722751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04703440946105505</v>
+        <v>0.04504346914666121</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1962266419.818274</v>
+        <v>2491637143.462072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08609938960085273</v>
+        <v>0.07052023860464948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04515298177795726</v>
+        <v>0.03881966865103497</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2511048147.139804</v>
+        <v>2477782114.04073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1674925153174931</v>
+        <v>0.1681240135831432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02943269767109469</v>
+        <v>0.02416942068681467</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1926262806.197752</v>
+        <v>1529726231.543213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1569129253438379</v>
+        <v>0.1408974235192962</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03493457436301035</v>
+        <v>0.02892467240941428</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5214442276.538812</v>
+        <v>5168209365.847516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1575840423578498</v>
+        <v>0.1490212303988164</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0502785010872921</v>
+        <v>0.05098592302722701</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2958944262.308899</v>
+        <v>3841391264.977497</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1581752322486199</v>
+        <v>0.1233738587655667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03823510417956136</v>
+        <v>0.04195706456530475</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2943495954.568769</v>
+        <v>2818257467.472813</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1231160597426598</v>
+        <v>0.1777158310200056</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04201799379018775</v>
+        <v>0.03473148964177376</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5193133059.426991</v>
+        <v>3751154235.762689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09786393936058249</v>
+        <v>0.06780213166267138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0308401614273438</v>
+        <v>0.02021828519614372</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3437894189.066086</v>
+        <v>3899710730.107756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1666540198931401</v>
+        <v>0.1672396629273719</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03619236884085834</v>
+        <v>0.03720249045128282</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1159874224.964966</v>
+        <v>1636889433.994473</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09960361336901226</v>
+        <v>0.07656023360199177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04069993219978808</v>
+        <v>0.03405441703237584</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1976706468.943661</v>
+        <v>2692308658.870389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.108879040043946</v>
+        <v>0.09566601161803918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03435359201230173</v>
+        <v>0.04467917334771705</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3877755215.113553</v>
+        <v>4428616923.447434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1255272962496577</v>
+        <v>0.1384071691979566</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03427778399971351</v>
+        <v>0.05058154973500176</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3649591872.515331</v>
+        <v>3496767763.442394</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1240496528116452</v>
+        <v>0.1604749566708607</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03450353221545233</v>
+        <v>0.02908328663305233</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>966463556.6644348</v>
+        <v>888717804.3472444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.135672937936111</v>
+        <v>0.1291475143398536</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02193381216628588</v>
+        <v>0.01786995070783119</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2188002961.318644</v>
+        <v>2179085389.724098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1471480446888372</v>
+        <v>0.11562962018043</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03165190241419225</v>
+        <v>0.02990687233663075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2186060354.130186</v>
+        <v>2516098456.320152</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07604633330659995</v>
+        <v>0.09772245636768048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03717434278134128</v>
+        <v>0.03762520519932993</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3342394181.756265</v>
+        <v>2634070078.726852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338715478602809</v>
+        <v>0.0995197232176243</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04507479498424426</v>
+        <v>0.0433345163987719</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1113653876.554276</v>
+        <v>1025714983.171293</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1157615812267729</v>
+        <v>0.1601757846634415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536694272278918</v>
+        <v>0.04320619153228189</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3377590543.373724</v>
+        <v>2725579437.623959</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1191714570459292</v>
+        <v>0.1183054304717116</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02476597109958734</v>
+        <v>0.02991917826820411</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1176768560.918711</v>
+        <v>1097220214.878893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100483904384963</v>
+        <v>0.111097942946517</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02885432480388963</v>
+        <v>0.01920136184283587</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1222709570.305191</v>
+        <v>1190184290.282049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08377354939212403</v>
+        <v>0.1115670936776216</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03702182993844649</v>
+        <v>0.03655142965817133</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3253736458.803173</v>
+        <v>3956897592.863937</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1108601372539178</v>
+        <v>0.1083232949857571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02175819147892229</v>
+        <v>0.01826355582950826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2846669668.557837</v>
+        <v>2804247690.675807</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09401090018119422</v>
+        <v>0.1278926663354125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04452291840844357</v>
+        <v>0.04131016070078366</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5849403678.926795</v>
+        <v>5098025372.867583</v>
       </c>
       <c r="F29" t="n">
-        <v>0.133384277679035</v>
+        <v>0.09560683046985342</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03427236134116123</v>
+        <v>0.04458705715212603</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2154135348.047276</v>
+        <v>1775166503.192526</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09121372406035695</v>
+        <v>0.1220908948102605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02520481870231516</v>
+        <v>0.02680288198427411</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1224868652.5244</v>
+        <v>1382937629.252437</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0709537792405372</v>
+        <v>0.08926386583596202</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0382534214015481</v>
+        <v>0.0410253607608216</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1514780649.624202</v>
+        <v>1557960330.28799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1204607352870553</v>
+        <v>0.1170839027366504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02733027605944155</v>
+        <v>0.02711451444589446</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2740966698.521461</v>
+        <v>2360054781.32614</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1657380502199045</v>
+        <v>0.1317514227906365</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04892671773649279</v>
+        <v>0.04347236959775749</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1471632162.30113</v>
+        <v>1517574197.7638</v>
       </c>
       <c r="F34" t="n">
-        <v>0.087946190213274</v>
+        <v>0.1113159971120035</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02447416924964142</v>
+        <v>0.01856854831529085</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1233956708.734663</v>
+        <v>1362166208.144056</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09892998583043769</v>
+        <v>0.08117171689203026</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03079709723215239</v>
+        <v>0.04246074360870947</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2542449840.522753</v>
+        <v>2991279492.91039</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1705326384140599</v>
+        <v>0.1253060860123916</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02608029584274393</v>
+        <v>0.02379130029559773</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1964540439.241614</v>
+        <v>1863847701.967525</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08055589964880058</v>
+        <v>0.107672810253218</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03765027184309223</v>
+        <v>0.03720789408735681</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1906155201.5897</v>
+        <v>1762509235.399985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1023319001313103</v>
+        <v>0.07729090943871036</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03456322362857536</v>
+        <v>0.03476114641196821</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1868084711.637494</v>
+        <v>1422968510.096735</v>
       </c>
       <c r="F39" t="n">
-        <v>0.165578668238267</v>
+        <v>0.1169173753106484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02479712028575181</v>
+        <v>0.03243750590114843</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1691658662.768552</v>
+        <v>1319918964.186198</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1348248178659734</v>
+        <v>0.1439581095153055</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04800722124218904</v>
+        <v>0.04208137740691734</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2513834911.406624</v>
+        <v>2832305419.667571</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1665243785449066</v>
+        <v>0.1084452301113254</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03169833475809175</v>
+        <v>0.03430696084454152</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3998709297.784637</v>
+        <v>4220200488.308434</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1079204036945467</v>
+        <v>0.1073592949649476</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03962433625908953</v>
+        <v>0.04510746681850122</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2641139083.804139</v>
+        <v>2434584670.986945</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142640200264171</v>
+        <v>0.1392961493495666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02358314437036384</v>
+        <v>0.02088015795131451</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1727759777.37047</v>
+        <v>1573172516.608043</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09463511818171082</v>
+        <v>0.06899863367103794</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03694505493205555</v>
+        <v>0.03138074332880773</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2189595012.180451</v>
+        <v>1926476554.714077</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1237346507547655</v>
+        <v>0.1736208434038581</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05232229827323882</v>
+        <v>0.04851786297926471</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4846401065.148088</v>
+        <v>3509461729.417245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.135987984657665</v>
+        <v>0.1268796751228457</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05996470527377399</v>
+        <v>0.04032416129450005</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5119380011.667691</v>
+        <v>4016845199.591563</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1921737739406612</v>
+        <v>0.1592632512141149</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05970097579556425</v>
+        <v>0.05954209233918441</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3595228926.180655</v>
+        <v>3618596532.366289</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07812864105326295</v>
+        <v>0.09436384327426742</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0325687241471808</v>
+        <v>0.03472160923512226</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1381398460.94877</v>
+        <v>1644705038.284612</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1294221108772626</v>
+        <v>0.1791974423392735</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03435516490596971</v>
+        <v>0.03696689201119573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3383965131.460019</v>
+        <v>3046372117.836509</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1378650433363389</v>
+        <v>0.166966956559564</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04919726081114729</v>
+        <v>0.03576163222029407</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1416689713.893413</v>
+        <v>1135505076.533949</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1354212021456286</v>
+        <v>0.1812160980373576</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04108490152506431</v>
+        <v>0.03912408266293278</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4813113671.376063</v>
+        <v>3900382232.679843</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09611784324068486</v>
+        <v>0.1057519550828377</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04589079518489574</v>
+        <v>0.05669210996162192</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2473368215.641863</v>
+        <v>3353123107.415165</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1556579435848288</v>
+        <v>0.1451968203524203</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02317637895658229</v>
+        <v>0.03156808241476843</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3869508663.690672</v>
+        <v>4253338395.040717</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1106093341352338</v>
+        <v>0.1461096216766227</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05175761558565637</v>
+        <v>0.03670087236112261</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3535644447.123105</v>
+        <v>4902550956.752585</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1576478874844572</v>
+        <v>0.2125086945532852</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02576506645445797</v>
+        <v>0.01971259721685088</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1649348815.345538</v>
+        <v>1367558540.125573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1177833041973179</v>
+        <v>0.1233650325972232</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05581051398333782</v>
+        <v>0.05832638961238269</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4575498765.524622</v>
+        <v>3918266916.226918</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1388134122266336</v>
+        <v>0.1154647291296382</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02182108333717544</v>
+        <v>0.02197088642142234</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1867484313.856744</v>
+        <v>1322647407.244638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1416847954315709</v>
+        <v>0.1451319218291969</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03857741870492824</v>
+        <v>0.03181958485838658</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4308816726.38199</v>
+        <v>5370048856.16007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0902170620678413</v>
+        <v>0.1219642533039805</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03249612106073237</v>
+        <v>0.04387428811396951</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3273834390.367037</v>
+        <v>2988573783.46623</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1738056905353695</v>
+        <v>0.1935346830516169</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02183854934513952</v>
+        <v>0.02210253277846118</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2970192431.53534</v>
+        <v>2537885952.132975</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1802859252617669</v>
+        <v>0.1107169229306376</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02105897646693563</v>
+        <v>0.02116344655707687</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1915442088.252654</v>
+        <v>1411094855.563375</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1356056460698329</v>
+        <v>0.1426142665759124</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04074431140571162</v>
+        <v>0.03822108814521955</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4745058636.405452</v>
+        <v>3778489687.320954</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06769358835498987</v>
+        <v>0.09605435299086369</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04349924780495035</v>
+        <v>0.04185317050983764</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4023552492.930269</v>
+        <v>5126309391.997722</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1392136061731626</v>
+        <v>0.1746826854891748</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0253990327867024</v>
+        <v>0.02480095516869469</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5013441488.566602</v>
+        <v>5011555415.204063</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1365892801766683</v>
+        <v>0.1280768702190988</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02744052170719238</v>
+        <v>0.02749446831085966</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4832266309.333411</v>
+        <v>4067819485.188562</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1236509416573459</v>
+        <v>0.1275293137563198</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04518838884180371</v>
+        <v>0.04267838974505159</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2278057678.268802</v>
+        <v>2744950788.553533</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09343203632453757</v>
+        <v>0.08814522333402711</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03701193054424521</v>
+        <v>0.04967779821557233</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4619654957.449824</v>
+        <v>5632821982.548712</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1121535689304527</v>
+        <v>0.147359995716582</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04770028849962542</v>
+        <v>0.03406536543145124</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2282414713.279982</v>
+        <v>1528403955.817857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1397502135135534</v>
+        <v>0.1692704049336929</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0541420491124701</v>
+        <v>0.04352692978682784</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3698369839.102485</v>
+        <v>3391457850.973505</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08828014603202655</v>
+        <v>0.07345394087070803</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03587511698508297</v>
+        <v>0.04599191266088521</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3536314723.413023</v>
+        <v>3538264102.335303</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1374433132902266</v>
+        <v>0.1150240164908518</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02319450853671826</v>
+        <v>0.02748091933531057</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2016327084.774996</v>
+        <v>2157475750.980523</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09535507920149926</v>
+        <v>0.0982786125165975</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04496639477033417</v>
+        <v>0.05014878160422329</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3557812555.599754</v>
+        <v>2595529001.073154</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1098953101027672</v>
+        <v>0.0854735636053148</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0331476960169693</v>
+        <v>0.05001456014217135</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2937857284.851586</v>
+        <v>3170957946.80664</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1582394767808035</v>
+        <v>0.1484398173094166</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03494511428852735</v>
+        <v>0.02293479875674667</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1975249266.678557</v>
+        <v>2400610415.482006</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1304674214358331</v>
+        <v>0.1615915003792847</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03531011380328763</v>
+        <v>0.03117688847093726</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4539428796.343365</v>
+        <v>5262052819.810331</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1022326589700653</v>
+        <v>0.1039196593214428</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03038523022381855</v>
+        <v>0.02579212035339463</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1640762565.703288</v>
+        <v>1997972173.4056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1605123532515852</v>
+        <v>0.1326952519180915</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02978447420291049</v>
+        <v>0.02773528181988878</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4050531417.634272</v>
+        <v>3810659813.340719</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09890125490123761</v>
+        <v>0.1083278577488137</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05137659360232161</v>
+        <v>0.05291449898988949</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1721772042.184222</v>
+        <v>1711834216.384988</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1205747485966682</v>
+        <v>0.1353754135617757</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03616944662940623</v>
+        <v>0.04025419764128248</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5542523236.934751</v>
+        <v>3932477378.038362</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099346766755691</v>
+        <v>0.1071171612478245</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03366601513653749</v>
+        <v>0.03247314981181156</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4533864162.230941</v>
+        <v>4588420436.366485</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1223280114512445</v>
+        <v>0.1137896352498554</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02557120037438842</v>
+        <v>0.0280889828635396</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4015753975.612955</v>
+        <v>3543032178.479653</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1544119627186203</v>
+        <v>0.1563068120541562</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02058297199240761</v>
+        <v>0.02696942603410618</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2209738078.872681</v>
+        <v>2025669384.185219</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1346680621193326</v>
+        <v>0.1225096011575515</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03782179350452573</v>
+        <v>0.0352134556919526</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1975661227.838077</v>
+        <v>1615849055.930931</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1122963150417342</v>
+        <v>0.1110497641301032</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04499809855753188</v>
+        <v>0.03499042819871807</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2872584787.902778</v>
+        <v>2681072098.544505</v>
       </c>
       <c r="F85" t="n">
-        <v>0.12306353397147</v>
+        <v>0.1586412175969392</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03802897217501685</v>
+        <v>0.04655967604490028</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2173846085.632969</v>
+        <v>2811416684.755377</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1343968800465249</v>
+        <v>0.1052461318127684</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02225355685777018</v>
+        <v>0.0257948806919746</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1030757041.760514</v>
+        <v>1032033592.551872</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118901650859458</v>
+        <v>0.1787695165952551</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03380078994621341</v>
+        <v>0.03561456959243488</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3664749929.87616</v>
+        <v>3099190261.469433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.161671952894122</v>
+        <v>0.1168735390066486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02495342511504542</v>
+        <v>0.02758846366985263</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3314643281.678568</v>
+        <v>2466856322.759655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1589909931026499</v>
+        <v>0.1317670517395517</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03278132260362776</v>
+        <v>0.03069816187530645</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1764667952.50201</v>
+        <v>1940370302.144635</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09942737802956185</v>
+        <v>0.1199213818882108</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03414510669081108</v>
+        <v>0.04176459191408056</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1402977459.830409</v>
+        <v>1796650681.253303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1656950722550787</v>
+        <v>0.1688919276792354</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04845013010738452</v>
+        <v>0.04586232310733305</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2807912338.221724</v>
+        <v>2470656216.614822</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08823992972771801</v>
+        <v>0.06780875542531332</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04755436161397723</v>
+        <v>0.03426256455407792</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3268143395.069169</v>
+        <v>3595376352.719841</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1169007893119328</v>
+        <v>0.1345684655763618</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04761233766867976</v>
+        <v>0.03516059299115439</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1703814493.765521</v>
+        <v>1557668036.616359</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1409052953255744</v>
+        <v>0.1377453973988771</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02881940200634812</v>
+        <v>0.02778169195094817</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2805011000.278971</v>
+        <v>2220182231.492798</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0955250733751327</v>
+        <v>0.1013092854398658</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04094067555647222</v>
+        <v>0.04044894385724969</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1702671980.240442</v>
+        <v>2210493916.302687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1391833686570498</v>
+        <v>0.0939775820996729</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0458406118867504</v>
+        <v>0.04389734948231949</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3417676203.487909</v>
+        <v>4219719332.080528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.112754544708621</v>
+        <v>0.1672607422868259</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0187454366560871</v>
+        <v>0.02804710099394681</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2825278323.820877</v>
+        <v>3837328837.477616</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09961609162215811</v>
+        <v>0.1171852850794716</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02096156796643179</v>
+        <v>0.03149854958175812</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2737683923.065242</v>
+        <v>3064127434.525019</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1217077397772113</v>
+        <v>0.1387405422639597</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02943679548465585</v>
+        <v>0.03275195561516928</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3554586157.978044</v>
+        <v>4647342773.906799</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1757410130601548</v>
+        <v>0.1446997619278428</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02279897253331313</v>
+        <v>0.02175364616864716</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2652802712.371589</v>
+        <v>3403161094.144863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2039315581645325</v>
+        <v>0.1886662066446225</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04224503558429472</v>
+        <v>0.03719038519591419</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_364.xlsx
+++ b/output/fit_clients/fit_round_364.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1695201883.5964</v>
+        <v>1688907263.309881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08251504036640507</v>
+        <v>0.1056298522084369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0372486011379956</v>
+        <v>0.04149056978011285</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2602265185.214596</v>
+        <v>2179444548.167326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1677916370175108</v>
+        <v>0.177823890120122</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04004139836214866</v>
+        <v>0.03377170158294774</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4312333024.978049</v>
+        <v>3423726169.322948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1100128004138741</v>
+        <v>0.1383387652363637</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0336931769253002</v>
+        <v>0.03708128542363431</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>188</v>
+      </c>
+      <c r="J4" t="n">
+        <v>363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49.3159221870936</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4096140956.726587</v>
+        <v>3817896444.665267</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0798652899749058</v>
+        <v>0.1038269542617188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03798223304552732</v>
+        <v>0.04574024730335115</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>146</v>
+      </c>
+      <c r="J5" t="n">
+        <v>364</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1907237589.160249</v>
+        <v>2730945927.053203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1146665698722751</v>
+        <v>0.08990058637446174</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04504346914666121</v>
+        <v>0.05380062527553816</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2491637143.462072</v>
+        <v>2794793343.776667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07052023860464948</v>
+        <v>0.08449055391460608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03881966865103497</v>
+        <v>0.03555166927913943</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2477782114.04073</v>
+        <v>3773177116.887768</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1681240135831432</v>
+        <v>0.1627598491669466</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02416942068681467</v>
+        <v>0.03138074189750128</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>364</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1529726231.543213</v>
+        <v>1617036623.018271</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1408974235192962</v>
+        <v>0.167195530108108</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02892467240941428</v>
+        <v>0.03436923765534605</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5168209365.847516</v>
+        <v>4371240199.723304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1490212303988164</v>
+        <v>0.1970724656231029</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05098592302722701</v>
+        <v>0.04167541198754393</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>303</v>
+      </c>
+      <c r="J10" t="n">
+        <v>364</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3841391264.977497</v>
+        <v>4223698154.652799</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1233738587655667</v>
+        <v>0.1566680245251955</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04195706456530475</v>
+        <v>0.03086111571028477</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>152</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2818257467.472813</v>
+        <v>2655687624.615452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1777158310200056</v>
+        <v>0.1713877726835679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03473148964177376</v>
+        <v>0.05082340209318328</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3751154235.762689</v>
+        <v>3573369011.407952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06780213166267138</v>
+        <v>0.08672432050796877</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02021828519614372</v>
+        <v>0.02164306511775062</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>189</v>
+      </c>
+      <c r="J13" t="n">
+        <v>363</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56.14820385777225</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3899710730.107756</v>
+        <v>3759560793.158466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1672396629273719</v>
+        <v>0.1879713740024359</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03720249045128282</v>
+        <v>0.03068527758670704</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636889433.994473</v>
+        <v>1244341423.975553</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07656023360199177</v>
+        <v>0.09786438937605836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03405441703237584</v>
+        <v>0.0351098666757734</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2692308658.870389</v>
+        <v>2106177954.520161</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09566601161803918</v>
+        <v>0.08441862211535071</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04467917334771705</v>
+        <v>0.04860792994414464</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4428616923.447434</v>
+        <v>3630305376.179157</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1384071691979566</v>
+        <v>0.1249375363426045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05058154973500176</v>
+        <v>0.04846099335093143</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>172</v>
+      </c>
+      <c r="J17" t="n">
+        <v>363</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59.22787597305474</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3496767763.442394</v>
+        <v>3042638322.827141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1604749566708607</v>
+        <v>0.1204430106277594</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02908328663305233</v>
+        <v>0.02482628009292295</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>362</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>888717804.3472444</v>
+        <v>1068360233.591217</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1291475143398536</v>
+        <v>0.1423805197667714</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01786995070783119</v>
+        <v>0.02624881765460945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2179085389.724098</v>
+        <v>2412203583.092305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11562962018043</v>
+        <v>0.1602132241991324</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02990687233663075</v>
+        <v>0.02938986009760104</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2516098456.320152</v>
+        <v>1711449798.735393</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09772245636768048</v>
+        <v>0.07722558663823159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03762520519932993</v>
+        <v>0.04177788369878534</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2634070078.726852</v>
+        <v>2653008961.045381</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0995197232176243</v>
+        <v>0.09178388799306902</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0433345163987719</v>
+        <v>0.04419690641971435</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="n">
+        <v>363</v>
+      </c>
+      <c r="K22" t="n">
+        <v>35.96356424525489</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025714983.171293</v>
+        <v>1210438508.693678</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1601757846634415</v>
+        <v>0.1804839794895553</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04320619153228189</v>
+        <v>0.03726605548098965</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2725579437.623959</v>
+        <v>2710010944.354652</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1183054304717116</v>
+        <v>0.1115495788036497</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02991917826820411</v>
+        <v>0.02874219070069281</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>363</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33.1896925260053</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097220214.878893</v>
+        <v>1451316200.725939</v>
       </c>
       <c r="F25" t="n">
-        <v>0.111097942946517</v>
+        <v>0.1050877447507889</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01920136184283587</v>
+        <v>0.02162498877517452</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1190184290.282049</v>
+        <v>1217988189.682416</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1115670936776216</v>
+        <v>0.1111962044548884</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03655142965817133</v>
+        <v>0.02459971003292557</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3956897592.863937</v>
+        <v>3858454034.974555</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1083232949857571</v>
+        <v>0.1411117136642314</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01826355582950826</v>
+        <v>0.02188729824820128</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>152</v>
+      </c>
+      <c r="J27" t="n">
+        <v>364</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2804247690.675807</v>
+        <v>2589818976.700805</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1278926663354125</v>
+        <v>0.116642016913575</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04131016070078366</v>
+        <v>0.03126849279497151</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5098025372.867583</v>
+        <v>5186547223.897468</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09560683046985342</v>
+        <v>0.1201417877552787</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04458705715212603</v>
+        <v>0.041163598154941</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>320</v>
+      </c>
+      <c r="J29" t="n">
+        <v>363</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57.55228638735658</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1775166503.192526</v>
+        <v>1634668893.952288</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1220908948102605</v>
+        <v>0.08500860050639915</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02680288198427411</v>
+        <v>0.0246280048866902</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1382937629.252437</v>
+        <v>959618934.0835853</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08926386583596202</v>
+        <v>0.1046113883501643</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0410253607608216</v>
+        <v>0.03194156398341563</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1557960330.28799</v>
+        <v>1579219243.777841</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1170839027366504</v>
+        <v>0.09019745353263206</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02711451444589446</v>
+        <v>0.0277920926440678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2360054781.32614</v>
+        <v>2047714300.609304</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1317514227906365</v>
+        <v>0.1454330087545148</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04347236959775749</v>
+        <v>0.03953639255719608</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1517574197.7638</v>
+        <v>1510905923.61535</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1113159971120035</v>
+        <v>0.07503703675929772</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01856854831529085</v>
+        <v>0.02193964556502831</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1362166208.144056</v>
+        <v>1218064588.498195</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08117171689203026</v>
+        <v>0.09473202453306752</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04246074360870947</v>
+        <v>0.04004545825885133</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2991279492.91039</v>
+        <v>2856900371.657659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1253060860123916</v>
+        <v>0.1401907862726162</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02379130029559773</v>
+        <v>0.02395135938836024</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1863847701.967525</v>
+        <v>2730205983.797365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.107672810253218</v>
+        <v>0.06798491747854672</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03720789408735681</v>
+        <v>0.03185815720317575</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1762509235.399985</v>
+        <v>2129218047.282052</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07729090943871036</v>
+        <v>0.1203063661927182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03476114641196821</v>
+        <v>0.03063451847920893</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1422968510.096735</v>
+        <v>1549411829.940134</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169173753106484</v>
+        <v>0.1572494139270625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03243750590114843</v>
+        <v>0.02213600994882373</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1319918964.186198</v>
+        <v>1723423657.778689</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1439581095153055</v>
+        <v>0.1525893807476941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04208137740691734</v>
+        <v>0.04287189381248677</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2832305419.667571</v>
+        <v>2562809530.113201</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1084452301113254</v>
+        <v>0.1496556638164772</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03430696084454152</v>
+        <v>0.03363188930377049</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4220200488.308434</v>
+        <v>4339718918.097438</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1073592949649476</v>
+        <v>0.08957643607739728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04510746681850122</v>
+        <v>0.03458261318248232</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>161</v>
+      </c>
+      <c r="J42" t="n">
+        <v>364</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2434584670.986945</v>
+        <v>1869218250.259858</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1392961493495666</v>
+        <v>0.1642790049550613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02088015795131451</v>
+        <v>0.02277608580337414</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1573172516.608043</v>
+        <v>2032550068.680998</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06899863367103794</v>
+        <v>0.07551531069185023</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03138074332880773</v>
+        <v>0.03446875448428145</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1926476554.714077</v>
+        <v>2080108155.919433</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1736208434038581</v>
+        <v>0.1908213206345467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04851786297926471</v>
+        <v>0.0382604488790444</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3509461729.417245</v>
+        <v>4544392400.107982</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1268796751228457</v>
+        <v>0.1209908499651064</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04032416129450005</v>
+        <v>0.05092331429985183</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>218</v>
+      </c>
+      <c r="J46" t="n">
+        <v>364</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4016845199.591563</v>
+        <v>5042322446.432447</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1592632512141149</v>
+        <v>0.1656015283893926</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05954209233918441</v>
+        <v>0.04448035484655219</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>162</v>
+      </c>
+      <c r="J47" t="n">
+        <v>364</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3618596532.366289</v>
+        <v>3819758463.483522</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09436384327426742</v>
+        <v>0.1085829566551425</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03472160923512226</v>
+        <v>0.03195483315292053</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>186</v>
+      </c>
+      <c r="J48" t="n">
+        <v>364</v>
+      </c>
+      <c r="K48" t="n">
+        <v>62.37239865858008</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1644705038.284612</v>
+        <v>1270230972.903208</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1791974423392735</v>
+        <v>0.1829394163555412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03696689201119573</v>
+        <v>0.04142378109599358</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3046372117.836509</v>
+        <v>4185557745.349479</v>
       </c>
       <c r="F50" t="n">
-        <v>0.166966956559564</v>
+        <v>0.1219959031679793</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03576163222029407</v>
+        <v>0.03320890710134607</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>120</v>
+      </c>
+      <c r="J50" t="n">
+        <v>364</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1135505076.533949</v>
+        <v>1522449350.399888</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1812160980373576</v>
+        <v>0.196472177499312</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03912408266293278</v>
+        <v>0.03741971393701433</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3900382232.679843</v>
+        <v>3789185511.733831</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1057519550828377</v>
+        <v>0.1033678562187296</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05669210996162192</v>
+        <v>0.04109677735433386</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>215</v>
+      </c>
+      <c r="J52" t="n">
+        <v>364</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3353123107.415165</v>
+        <v>3724180854.279321</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1451968203524203</v>
+        <v>0.1251250492345373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03156808241476843</v>
+        <v>0.03280947039679012</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4253338395.040717</v>
+        <v>3659277484.581632</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1461096216766227</v>
+        <v>0.1323494944233116</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03670087236112261</v>
+        <v>0.038386567942518</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>193</v>
+      </c>
+      <c r="J54" t="n">
+        <v>364</v>
+      </c>
+      <c r="K54" t="n">
+        <v>59.63948383218752</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4902550956.752585</v>
+        <v>3499772026.854771</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2125086945532852</v>
+        <v>0.1561089663084101</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01971259721685088</v>
+        <v>0.02315554451067821</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>174</v>
+      </c>
+      <c r="J55" t="n">
+        <v>362</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1367558540.125573</v>
+        <v>1191972819.420536</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1233650325972232</v>
+        <v>0.1309923331051099</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05832638961238269</v>
+        <v>0.03562184112200127</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3918266916.226918</v>
+        <v>3320117132.006078</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1154647291296382</v>
+        <v>0.1727312053939857</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02197088642142234</v>
+        <v>0.02435923159813792</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>151</v>
+      </c>
+      <c r="J57" t="n">
+        <v>363</v>
+      </c>
+      <c r="K57" t="n">
+        <v>51.51460902351641</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1322647407.244638</v>
+        <v>1230217301.576948</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1451319218291969</v>
+        <v>0.1938866834360561</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03181958485838658</v>
+        <v>0.03441627730744558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5370048856.16007</v>
+        <v>5323853281.028214</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1219642533039805</v>
+        <v>0.09177422160064391</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04387428811396951</v>
+        <v>0.0364113369617175</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>177</v>
+      </c>
+      <c r="J59" t="n">
+        <v>363</v>
+      </c>
+      <c r="K59" t="n">
+        <v>58.68396021116467</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2988573783.46623</v>
+        <v>3748924472.892915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1935346830516169</v>
+        <v>0.1879542531793403</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02210253277846118</v>
+        <v>0.0228284049016974</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2537885952.132975</v>
+        <v>2843829644.437507</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1107169229306376</v>
+        <v>0.1725486889103703</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02116344655707687</v>
+        <v>0.02773028334917951</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1411094855.563375</v>
+        <v>2064900063.550956</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1426142665759124</v>
+        <v>0.169552880508506</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03822108814521955</v>
+        <v>0.04196540369144511</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3778489687.320954</v>
+        <v>5531942390.140397</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09605435299086369</v>
+        <v>0.06954738433890126</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04185317050983764</v>
+        <v>0.03115215429194605</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>179</v>
+      </c>
+      <c r="J63" t="n">
+        <v>364</v>
+      </c>
+      <c r="K63" t="n">
+        <v>59.67080618124744</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5126309391.997722</v>
+        <v>5035472881.208397</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1746826854891748</v>
+        <v>0.1476686179209636</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02480095516869469</v>
+        <v>0.02241604938242462</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>180</v>
+      </c>
+      <c r="J64" t="n">
+        <v>364</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5011555415.204063</v>
+        <v>4818652211.569398</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1280768702190988</v>
+        <v>0.1623268495037396</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02749446831085966</v>
+        <v>0.03123897855083741</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>277</v>
+      </c>
+      <c r="J65" t="n">
+        <v>363</v>
+      </c>
+      <c r="K65" t="n">
+        <v>59.16462444938951</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4067819485.188562</v>
+        <v>5323012781.055756</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1275293137563198</v>
+        <v>0.1617483274756882</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04267838974505159</v>
+        <v>0.03669450111686604</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>180</v>
+      </c>
+      <c r="J66" t="n">
+        <v>363</v>
+      </c>
+      <c r="K66" t="n">
+        <v>56.11623499425722</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2744950788.553533</v>
+        <v>3355617096.583435</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08814522333402711</v>
+        <v>0.06853407647079951</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04967779821557233</v>
+        <v>0.04106984667138633</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5632821982.548712</v>
+        <v>4189756708.079959</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147359995716582</v>
+        <v>0.1327403064589321</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03406536543145124</v>
+        <v>0.03217882075229538</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>198</v>
+      </c>
+      <c r="J68" t="n">
+        <v>363</v>
+      </c>
+      <c r="K68" t="n">
+        <v>57.75826922023558</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1528403955.817857</v>
+        <v>2377187341.782652</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1692704049336929</v>
+        <v>0.1425762132481389</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04352692978682784</v>
+        <v>0.05505189031947803</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3391457850.973505</v>
+        <v>2883862765.8099</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07345394087070803</v>
+        <v>0.09025005203498507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04599191266088521</v>
+        <v>0.04497642025541267</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3538264102.335303</v>
+        <v>5025386972.252176</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1150240164908518</v>
+        <v>0.1489896690096585</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02748091933531057</v>
+        <v>0.02074736908420101</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>263</v>
+      </c>
+      <c r="J71" t="n">
+        <v>363</v>
+      </c>
+      <c r="K71" t="n">
+        <v>57.98084947874387</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2157475750.980523</v>
+        <v>1952245880.597574</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0982786125165975</v>
+        <v>0.07025501506074605</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05014878160422329</v>
+        <v>0.03575245790756391</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2595529001.073154</v>
+        <v>2989221589.241119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0854735636053148</v>
+        <v>0.07442601378475097</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05001456014217135</v>
+        <v>0.04455312105560434</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3170957946.80664</v>
+        <v>3506877942.157334</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1484398173094166</v>
+        <v>0.1400341778171156</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02293479875674667</v>
+        <v>0.03433461228818125</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>103</v>
+      </c>
+      <c r="J74" t="n">
+        <v>364</v>
+      </c>
+      <c r="K74" t="n">
+        <v>67.31945580739296</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2400610415.482006</v>
+        <v>2199970884.062354</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1615915003792847</v>
+        <v>0.1674441175290701</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03117688847093726</v>
+        <v>0.02831360631651866</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5262052819.810331</v>
+        <v>3867197279.217942</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1039196593214428</v>
+        <v>0.07848062478418173</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02579212035339463</v>
+        <v>0.02749475967710716</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>172</v>
+      </c>
+      <c r="J76" t="n">
+        <v>364</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1997972173.4056</v>
+        <v>1944900813.973036</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1326952519180915</v>
+        <v>0.1577585047822397</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02773528181988878</v>
+        <v>0.03022713801745642</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3810659813.340719</v>
+        <v>3066630929.549014</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1083278577488137</v>
+        <v>0.09965170849492098</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05291449898988949</v>
+        <v>0.05710229496408747</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>182</v>
+      </c>
+      <c r="J78" t="n">
+        <v>363</v>
+      </c>
+      <c r="K78" t="n">
+        <v>42.35656703262546</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1711834216.384988</v>
+        <v>1598244068.780275</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1353754135617757</v>
+        <v>0.1102877037152852</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04025419764128248</v>
+        <v>0.03734392508240574</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3932477378.038362</v>
+        <v>4010113256.02489</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1071171612478245</v>
+        <v>0.0818822281319521</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03247314981181156</v>
+        <v>0.02922550618992665</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>177</v>
+      </c>
+      <c r="J80" t="n">
+        <v>364</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4588420436.366485</v>
+        <v>4347680250.794957</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1137896352498554</v>
+        <v>0.1267030537718881</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0280889828635396</v>
+        <v>0.02187630859037306</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>168</v>
+      </c>
+      <c r="J81" t="n">
+        <v>364</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3543032178.479653</v>
+        <v>3514235051.809355</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1563068120541562</v>
+        <v>0.1727892735213765</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02696942603410618</v>
+        <v>0.02232640696205394</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>255</v>
+      </c>
+      <c r="J82" t="n">
+        <v>362</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2025669384.185219</v>
+        <v>2341846210.195932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1225096011575515</v>
+        <v>0.1419698747748637</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0352134556919526</v>
+        <v>0.0438848820482623</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1615849055.930931</v>
+        <v>2434622042.843296</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1110497641301032</v>
+        <v>0.1054161589587506</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03499042819871807</v>
+        <v>0.03661675699629623</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2681072098.544505</v>
+        <v>3022541610.005232</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1586412175969392</v>
+        <v>0.1523694781071284</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04655967604490028</v>
+        <v>0.03677303688986006</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2811416684.755377</v>
+        <v>2083465810.203538</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1052461318127684</v>
+        <v>0.1482366768522721</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0257948806919746</v>
+        <v>0.0189849960875798</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1032033592.551872</v>
+        <v>1205604274.431399</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1787695165952551</v>
+        <v>0.1385202428737333</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03561456959243488</v>
+        <v>0.03570363569925988</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3099190261.469433</v>
+        <v>3464755946.092316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1168735390066486</v>
+        <v>0.1393886085636379</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02758846366985263</v>
+        <v>0.03872386441561911</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2466856322.759655</v>
+        <v>3261791017.055875</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1317670517395517</v>
+        <v>0.1597178549589678</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03069816187530645</v>
+        <v>0.03862699889582715</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1940370302.144635</v>
+        <v>1510262706.587285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1199213818882108</v>
+        <v>0.1349520007882112</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04176459191408056</v>
+        <v>0.04164795643862321</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1796650681.253303</v>
+        <v>1967596318.549459</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1688919276792354</v>
+        <v>0.1843589618966416</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04586232310733305</v>
+        <v>0.05488251515105683</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2470656216.614822</v>
+        <v>2420814698.72457</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06780875542531332</v>
+        <v>0.07271079227641691</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03426256455407792</v>
+        <v>0.04535985730652115</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3595376352.719841</v>
+        <v>4252367974.736197</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1345684655763618</v>
+        <v>0.09956881888252585</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03516059299115439</v>
+        <v>0.05098635945323269</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>169</v>
+      </c>
+      <c r="J93" t="n">
+        <v>364</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1557668036.616359</v>
+        <v>1667069555.449739</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1377453973988771</v>
+        <v>0.1676058889221944</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02778169195094817</v>
+        <v>0.02857874302287165</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2220182231.492798</v>
+        <v>2168593063.037222</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1013092854398658</v>
+        <v>0.0980138566810233</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04044894385724969</v>
+        <v>0.03823584569926981</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2210493916.302687</v>
+        <v>1948201385.89983</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0939775820996729</v>
+        <v>0.1173017977157368</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04389734948231949</v>
+        <v>0.04351077598689294</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4219719332.080528</v>
+        <v>4885598515.987618</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1672607422868259</v>
+        <v>0.1759419236639678</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02804710099394681</v>
+        <v>0.02567041390682356</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>188</v>
+      </c>
+      <c r="J97" t="n">
+        <v>363</v>
+      </c>
+      <c r="K97" t="n">
+        <v>59.04412970692003</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3837328837.477616</v>
+        <v>3287582574.319133</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1171852850794716</v>
+        <v>0.09512248871914218</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03149854958175812</v>
+        <v>0.02737009248626114</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>90</v>
+      </c>
+      <c r="J98" t="n">
+        <v>363</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.86341737099097</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3064127434.525019</v>
+        <v>2505096005.644857</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1387405422639597</v>
+        <v>0.106344210139428</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03275195561516928</v>
+        <v>0.02633741392738077</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4647342773.906799</v>
+        <v>4157801706.643268</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1446997619278428</v>
+        <v>0.1506365860605655</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02175364616864716</v>
+        <v>0.02198290238035198</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>164</v>
+      </c>
+      <c r="J100" t="n">
+        <v>364</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.64862933109342</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3403161094.144863</v>
+        <v>3350187348.770407</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1886662066446225</v>
+        <v>0.2107828858040123</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03719038519591419</v>
+        <v>0.0380781695424379</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
